--- a/output/fit_clients/fit_round_57.xlsx
+++ b/output/fit_clients/fit_round_57.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6327055015.026127</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003270825928994019</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.165876511638769</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9764944950037271</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.165876511638769</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4637669800.647335</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004350795328839361</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.817598587038958</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9414574091477567</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.817598587038958</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4855342499.396423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003010062760501842</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.398237476218291</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9901325448543743</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.398237476218291</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3472628966.586713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004463516016863988</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8773820236940086</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.683195777812983</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9809267732022534</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.683195777812983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5592056843.673686</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002601299099369168</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.503710695750546</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8900110015304311</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.503710695750546</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8532821550.703871</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008565203964660846</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.707889172157531</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9390444813143126</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.707889172157531</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5704910479.645616</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002818465210880336</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.574588202399415</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9880430534821265</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.574588202399415</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6254709540.113655</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005104337595071178</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.534047280803617</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.943143739604803</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.534047280803617</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>2800301276.226158</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004964896674150036</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.932438676595247</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9799218020711591</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.932438676595247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5170778950.060276</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009213283014606353</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7524263679116966</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.591071756025873</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8390875999909426</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.591071756025873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9009555918.027239</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001797398016827681</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.758266620747058</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.039365109049051</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.758266620747058</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5497214115.218564</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003768202479157823</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.614298094720421</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.051131793700592</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.614298094720421</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7311686228.481025</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003492041092281795</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.245620654909823</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.930199448776877</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.245620654909823</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7037918067.513825</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005153782723592843</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.357738578015658</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.012660124084934</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.357738578015658</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8266102398.108325</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003470258859225644</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.166140029325515</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9393672017092697</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.166140029325515</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6344692411.581753</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002500965960469189</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.173983776377584</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9712410001052789</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.173983776377584</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5909238237.042963</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001314292623648765</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8945376110770935</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.618186777799437</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.111701023169283</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.618186777799437</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3528442440.687183</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001437759535868844</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.849366548459238</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9368410521755285</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.849366548459238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4212790997.683255</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001055558371437022</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.603190039960666</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.870223503784195</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.603190039960666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6354107380.755177</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005267929667355311</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.811772807569659</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8719001799882149</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.811772807569659</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6065359702.758677</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004657869683484282</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>13</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6553293931584439</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.842702274765644</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7842715663507818</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.842702274765644</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6014761062.153294</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001548325498608174</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.989835683993897</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.290450432807054</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.078629672517607</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.290450432807054</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7879289418.783201</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004427175114690716</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.4913592011835927</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.204098220704555</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.8166862661420329</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.204098220704555</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6041905052.362555</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002807876581633443</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.501406866457817</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9735741346388792</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.501406866457817</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4269224937.234662</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001394811443888473</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.477584499429073</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8415370144422351</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.477584499429073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7314684160.988149</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003876549686618424</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.762957754322197</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9482332678632283</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.762957754322197</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8349112942.254809</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.003640285761980507</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.988339351713905</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9299821933768307</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.988339351713905</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>4970179188.799936</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001141559729463665</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.359980600745181</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.017031705682267</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.359980600745181</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6367957975.417431</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003049196034389513</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.831681387811144</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9241364941125646</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.831681387811144</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5492734186.71928</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002298412195732055</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.4085626881526688</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.719236767412064</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.6688484321573339</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.719236767412064</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4107215633.527</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001273678945458431</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.541840317741647</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9801279879083203</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.541840317741647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6985376518.636118</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002893808133539489</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.535150405668886</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8849291315572079</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.535150405668886</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6739043163.729124</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004784969723852825</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>11</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.782607335632534</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.108635102527002</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8289547222457345</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.108635102527002</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5085919380.396267</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002688983466152408</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.955456725305896</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9541431155946788</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.955456725305896</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5402117490.71172</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002855305834039463</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.251359847820638</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.057778203732744</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.251359847820638</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4530705836.377083</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004885845327635797</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.912255602530388</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.03564678063502</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.912255602530388</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3555307516.210417</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003722310941861822</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>12</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.8783085938764298</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.761437560886697</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.056152246831238</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.761437560886697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5082844812.734509</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003028055459180551</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.156032529984491</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8772040935959966</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.156032529984491</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5323041875.79571</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004473917334641482</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.151845361723282</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.013630200668748</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.151845361723282</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6248062708.262865</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001286402521362068</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.275741473544439</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9577559144646077</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.275741473544439</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5785468711.916964</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00488616629060784</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.859319193262636</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.009343988692611</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.859319193262636</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6214475175.486567</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003749935678042606</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.216784536077754</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9565179561247455</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.216784536077754</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5756683053.708204</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001867348467751325</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>14</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.4360745726390222</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.766099774969701</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.6836433299909049</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.766099774969701</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4880256226.769109</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.00122930934110878</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.244346404562062</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9821314506079701</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.244346404562062</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9620188661.099813</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004861088165943541</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.986658797657391</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8572067644566002</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.986658797657391</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9820465035.744503</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002239762583301687</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.878692553804657</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9253085884180077</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.878692553804657</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7892238129.620944</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003367832908671421</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.714025463406658</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9869454653043503</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.714025463406658</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5586170271.505504</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005099401394595114</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>14</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.778061811805969</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8903514949756857</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.778061811805969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7585006125.99346</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00328917244530985</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.863363925075291</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.068448550494487</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.863363925075291</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3510869685.116098</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003961099452004103</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>14</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.713713807345283</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9696035375188028</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.713713807345283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7917795447.120075</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001970126022830309</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.894163339372809</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8772040935959966</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.894163339372809</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7032173689.573572</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002660366544713579</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.112187980643545</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9576504187011691</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.112187980643545</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4228126909.466486</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00451007872771093</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>13</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.9101999695979933</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.65892601524567</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.019979330853399</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.65892601524567</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6298271646.25473</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003393393453487238</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.637030218706604</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9167419013515429</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.637030218706604</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4873227836.142038</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002925646811984915</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>10</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.132846758878772</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.153779407640408</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.132846758878772</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6865935391.161576</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002835334527241065</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>13</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.696396893776666</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8338946394077492</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.696396893776666</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4903748242.372425</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002292517067326787</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.41433098276018</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8310479450833314</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.41433098276018</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7059201020.459095</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002974557920704764</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.8561915985912776</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.923862358784652</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.031008802843131</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.923862358784652</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4316232206.318262</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002809473643284349</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.616980124341834</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8455115528945505</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.616980124341834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6457991615.723977</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.00537485794153441</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>16</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5179220593031166</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.158754197710423</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.7669814285152016</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.158754197710423</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5278821410.846056</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002989331790675843</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
         <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.542810209440924</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9027786145342134</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.542810209440924</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>9030694065.765644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00518496234427155</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.524651508813648</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.512989176042577</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.524651508813648</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3655566097.465122</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003297520568076778</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.400526746834158</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9384280207370542</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.400526746834158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6410030351.370058</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005358096787636443</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.293848415809149</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.031550011049022</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.293848415809149</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5928522068.2509</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003588775690992459</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.291051938552808</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9520807588879305</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.291051938552808</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6451347254.977502</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004169765626001215</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.754079519338883</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9304166534470623</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.754079519338883</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8503756092.571805</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002281819937521914</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5940432128012401</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.512700079866418</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6471765355822654</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.512700079866418</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4848513633.95511</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001054239747948656</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.738875164133322</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.01935914817533</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.738875164133322</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6456621859.662626</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003921952840520562</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.761738884800609</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9478359968934499</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.761738884800609</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4543044108.267786</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003515040698310321</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>8</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.8312839263916607</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.394173926964342</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9249390053654571</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.394173926964342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7345208595.255255</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001810355167675271</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.735813828187277</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.066581443549246</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.735813828187277</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5293739196.071968</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001139025590260815</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.23613378147107</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.987838519712336</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.23613378147107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5322637862.979465</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003344155494016399</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.033291549492882</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9100646341939175</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.033291549492882</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6828288593.310989</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003286560437517914</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.822014789301418</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8831316479223628</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.822014789301418</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>4806589237.938416</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.003074345729105398</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>14</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.735169834521542</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9389368832000659</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.735169834521542</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5260235583.928665</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004382190217246474</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.984656456723704</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.033187085123104</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.984656456723704</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7421062281.81168</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004762079988693703</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.599101551605223</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9154484815601398</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.599101551605223</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7248981645.995466</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002246064075235649</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.868201157286772</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.007695477650885</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.868201157286772</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6881918959.963427</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003438454057210159</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.036128821958075</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9950832831276265</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.036128821958075</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6375064487.940034</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004871704829908657</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.367243664470053</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9988514648212266</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.367243664470053</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5534456265.545086</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004399326998788953</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.81801535068397</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9156691852943346</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.81801535068397</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7280565452.84687</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002789604074176701</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>18</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.285263262307512</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8241334024414199</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.285263262307512</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7064053000.326634</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003440799055630846</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.535694312361094</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9627682007725333</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.535694312361094</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5285630390.990985</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002478346373615359</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>16</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.427492265895308</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9141532317330008</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.427492265895308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7252849359.16794</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.00187200433829813</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.106886205726381</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.016733636997786</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.106886205726381</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3242448864.879521</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001320508590249455</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>19</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.282303237904058</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9668429218869975</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.282303237904058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6736955913.666316</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005352704996594622</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.894929331076614</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8722477432608919</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.894929331076614</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6711306540.088432</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00518559780353765</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.067061305806058</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9710329272371137</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.067061305806058</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4592598490.190899</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003304298750411282</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>11</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.4777399990678234</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.89098177930557</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.754415440085256</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.89098177930557</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5515955113.235168</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004575185592074961</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>8</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.9116606640899024</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.308343242398268</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.9784550290330832</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.308343242398268</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4149931793.687349</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003535071067207981</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.170742702035796</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.073953558507107</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.170742702035796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6065372408.351836</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001830311699761034</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.756185103784111</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9413500868358137</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.756185103784111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5064073994.401842</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001513628929758472</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.997795547002929</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.064193250471497</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.997795547002929</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7659651438.328794</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002750636015015596</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.375074834537663</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9623769298685441</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.375074834537663</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9619952731.005426</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002864956796397432</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>16</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.537732662306241</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9352513907919291</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.537732662306241</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>8092359519.359529</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003930369983438026</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.102661355654732</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.915889835845128</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.102661355654732</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7782480811.451311</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003761759492285823</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.9208575433369031</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.913830410722724</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.045834806831401</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.913830410722724</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3164639206.698767</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004051560885060499</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.78753600081494</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.926261071913726</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.78753600081494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5977855575.675973</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003579294187567572</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.37287644924307</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8750758684153528</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.37287644924307</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8426726330.941141</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001126506961856532</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.7093161222249654</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.930632168127673</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8988324943790611</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.930632168127673</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_57.xlsx
+++ b/output/fit_clients/fit_round_57.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6327055015.026127</v>
+        <v>1624376432.736892</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003270825928994019</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
+        <v>0.08941519679448105</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03372504056448906</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>812188161.3587874</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4637669800.647335</v>
+        <v>1932071243.820605</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004350795328839361</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+        <v>0.1620624335389994</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03441344717945285</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>966035651.3251177</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4855342499.396423</v>
+        <v>4651567961.878372</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003010062760501842</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13</v>
+        <v>0.118458073196673</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03513009746020343</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2325784041.166481</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3472628966.586713</v>
+        <v>4180554168.55828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004463516016863988</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07635315360486486</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04960754560018323</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2090277075.909295</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5592056843.673686</v>
+        <v>1733771960.939372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002601299099369168</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12</v>
+        <v>0.1288843239302101</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04217812442035649</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>866886038.7586951</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8532821550.703871</v>
+        <v>1896847129.512927</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008565203964660846</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17</v>
+        <v>0.06862490265416378</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04115435054076436</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>948423635.725354</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5704910479.645616</v>
+        <v>3866108843.965252</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002818465210880336</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+        <v>0.1632691298943814</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03079961818702099</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1933054567.91489</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6254709540.113655</v>
+        <v>2228133992.067221</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005104337595071178</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>18</v>
+        <v>0.1759212476001247</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03479008627679855</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1114066990.863185</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>2800301276.226158</v>
+        <v>3855918007.840137</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004964896674150036</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2014814970695711</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04329835953652054</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1927959014.549131</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>5170778950.060276</v>
+        <v>3208669824.90027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009213283014606353</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1547799244415551</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04525382296752004</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1604334869.846629</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9009555918.027239</v>
+        <v>2022073091.209745</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001797398016827681</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>16</v>
+        <v>0.1961969090457345</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04664848392865613</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1011036473.945742</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5497214115.218564</v>
+        <v>5300930114.700524</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003768202479157823</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12</v>
+        <v>0.09150561415342243</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0229613260703029</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2650465046.089849</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7311686228.481025</v>
+        <v>3369105450.135246</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003492041092281795</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13</v>
+        <v>0.1187991682839031</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02768517495865313</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1684552732.657332</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7037918067.513825</v>
+        <v>1305668207.470755</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005153782723592843</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16</v>
+        <v>0.07086344747818764</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03086509500758107</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>652834145.072086</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>8266102398.108325</v>
+        <v>1897570740.511952</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003470258859225644</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>17</v>
+        <v>0.09872878562303099</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0470965389798441</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>948785454.7860483</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6344692411.581753</v>
+        <v>3903907292.12722</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002500965960469189</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
+        <v>0.1088611994040339</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0429205729423845</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1951953685.295833</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5909238237.042963</v>
+        <v>2722576447.622179</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001314292623648765</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15</v>
+        <v>0.1481215837469958</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02341202461918398</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1361288274.063032</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3528442440.687183</v>
+        <v>935916678.5354488</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001437759535868844</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1596139536630006</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01926578525164961</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>467958352.8345442</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4212790997.683255</v>
+        <v>2454736622.7218</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001055558371437022</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
+        <v>0.1404123059527728</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0277197916356682</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1227368289.153459</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6354107380.755177</v>
+        <v>2535603221.633639</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005267929667355311</v>
-      </c>
-      <c r="G21" t="b">
+        <v>0.06393183805674295</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03637817784344126</v>
+      </c>
+      <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="H21" t="n">
-        <v>10</v>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1267801595.473286</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2524188181.233002</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1285357401274134</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05436158684256128</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6065359702.758677</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.004657869683484282</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+      <c r="I22" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1262094180.525689</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6014761062.153294</v>
+        <v>1256862301.839735</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001548325498608174</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11</v>
+        <v>0.1632818534333867</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04858523878518973</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>628431177.7067639</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7879289418.783201</v>
+        <v>2737678048.980468</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004427175114690716</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>15</v>
+        <v>0.1170097125602571</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03658079474492609</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1368839077.270645</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6041905052.362555</v>
+        <v>1123588219.976911</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002807876581633443</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>12</v>
+        <v>0.1191424700563711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02587587752649989</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>561794145.4165345</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4269224937.234662</v>
+        <v>1321374298.263393</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001394811443888473</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09555266048221001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03632152369228339</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>660687199.7725976</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7314684160.988149</v>
+        <v>4496654775.28754</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003876549686618424</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>0.1376449156872364</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02101514073893386</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2248327373.012327</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8349112942.254809</v>
+        <v>2976080877.176537</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003640285761980507</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>14</v>
+        <v>0.1390220207914356</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03774314292684964</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1488040447.635037</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4970179188.799936</v>
+        <v>4474968377.079054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001141559729463665</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>14</v>
+        <v>0.1009319056053034</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02900207712235949</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>26</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2237484172.406403</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6367957975.417431</v>
+        <v>2110916277.38821</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003049196034389513</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>19</v>
+        <v>0.1352917243294132</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03391055372017393</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1055458188.653907</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5492734186.71928</v>
+        <v>1422094166.276299</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002298412195732055</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12</v>
+        <v>0.07640793327233966</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03301889612362263</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>711046982.230786</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4107215633.527</v>
+        <v>1619559321.361174</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001273678945458431</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1116750060121275</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03305437156047857</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>809779753.6402576</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6985376518.636118</v>
+        <v>2110379320.191023</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002893808133539489</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>12</v>
+        <v>0.131520618203669</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04466121769482316</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1055189731.363189</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6739043163.729124</v>
+        <v>1088028018.557451</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004784969723852825</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>18</v>
+        <v>0.1055685520391417</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02027577446272593</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>544014032.5728428</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5085919380.396267</v>
+        <v>1345798665.790328</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002688983466152408</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>14</v>
+        <v>0.08283155367726538</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04229888402563085</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>672899275.4931656</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5402117490.71172</v>
+        <v>2218319238.027064</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002855305834039463</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>16</v>
+        <v>0.1722899413289415</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02764852873617662</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1109159663.443575</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4530705836.377083</v>
+        <v>2507782747.619116</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004885845327635797</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.09340548085953518</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03383848967139679</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>15</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1253891470.831008</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3555307516.210417</v>
+        <v>1463612216.552097</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003722310941861822</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1099837228701699</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03523515331387828</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>731806162.5272338</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5082844812.734509</v>
+        <v>1913338469.709089</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003028055459180551</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
+        <v>0.1826669977190239</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02102377625494811</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>956669242.4355563</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5323041875.79571</v>
+        <v>1416588316.81397</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004473917334641482</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>15</v>
+        <v>0.1192380686165628</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0452260716250444</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>708294145.3666606</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6248062708.262865</v>
+        <v>2726273334.561692</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001286402521362068</v>
-      </c>
-      <c r="G41" t="b">
+        <v>0.1633041320386212</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04237000142096253</v>
+      </c>
+      <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
-        <v>16</v>
+      <c r="I41" t="n">
+        <v>15</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1363136670.338667</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5785468711.916964</v>
+        <v>4358265448.643279</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00488616629060784</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>14</v>
+        <v>0.1007076807093619</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03918484238184099</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2179132778.147919</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6214475175.486567</v>
+        <v>2378353174.280086</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003749935678042606</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>14</v>
+        <v>0.1557101323005554</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02495422013213941</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>19</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1189176647.906222</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5756683053.708204</v>
+        <v>1794773662.819166</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001867348467751325</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.07470521719289004</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02674687674546422</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>897386896.6889194</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4880256226.769109</v>
+        <v>2146045902.062023</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00122930934110878</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1335251218169606</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05263974133204579</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1073022956.486374</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9620188661.099813</v>
+        <v>3667779997.212373</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004861088165943541</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
+        <v>0.1767732100852492</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05066570852380754</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>20</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1833889949.004526</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9820465035.744503</v>
+        <v>4111795475.381279</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002239762583301687</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1264006118083894</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04610971600571823</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2055897743.048146</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7892238129.620944</v>
+        <v>3770016635.530832</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003367832908671421</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
+        <v>0.08348148324193466</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03116782959185336</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1885008365.373165</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5586170271.505504</v>
+        <v>1323347162.475279</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005099401394595114</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.158483504674974</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0360882256058696</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>661673640.6218432</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7585006125.99346</v>
+        <v>2962488271.745361</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00328917244530985</v>
-      </c>
-      <c r="G50" t="b">
+        <v>0.1696353254327733</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05328177272919714</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>15</v>
+      <c r="I50" t="n">
+        <v>19</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1481244198.266002</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3510869685.116098</v>
+        <v>1074204247.384491</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003961099452004103</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1397795293936516</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04124781265784677</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>537102195.5176214</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7917795447.120075</v>
+        <v>4855667527.572399</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001970126022830309</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>14</v>
+        <v>0.1122758866848125</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04911627147132729</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>23</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2427833769.780575</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7032173689.573572</v>
+        <v>3566404338.731588</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002660366544713579</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>11</v>
+        <v>0.1396508442566666</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02955935251177414</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1783202162.559889</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4228126909.466486</v>
+        <v>4356658814.61002</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00451007872771093</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>15</v>
+        <v>0.1365270526230891</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04894070543706767</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>19</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2178329499.253886</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6298271646.25473</v>
+        <v>4243500044.049129</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003393393453487238</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>18</v>
+        <v>0.138519300610024</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03041023158911524</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2121750007.561512</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4873227836.142038</v>
+        <v>1266047390.169627</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002925646811984915</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
+        <v>0.1310550303567347</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03840050088038538</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>633023771.8973601</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6865935391.161576</v>
+        <v>2898299337.392269</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002835334527241065</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>13</v>
+        <v>0.1343428354316961</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02520021764464555</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1449149664.46521</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4903748242.372425</v>
+        <v>1706594327.902709</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002292517067326787</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>13</v>
+        <v>0.18167937995707</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02738713408010655</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>853297176.1114578</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7059201020.459095</v>
+        <v>4800922725.794335</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002974557920704764</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>7</v>
+        <v>0.09348728655027901</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04509786091035038</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2400461300.096938</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4316232206.318262</v>
+        <v>2753407906.270302</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002809473643284349</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1462710540874759</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02388794200591269</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1376703997.503571</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6457991615.723977</v>
+        <v>2261390576.475289</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00537485794153441</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>12</v>
+        <v>0.1303515219814532</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0221337562572109</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1130695338.238312</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5278821410.846056</v>
+        <v>1577297985.603396</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002989331790675843</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1238361631331324</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04555053348979488</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>788648987.3491147</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>9030694065.765644</v>
+        <v>3967213763.563841</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00518496234427155</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>14</v>
+        <v>0.07242927651823879</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04142382852574569</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1983606945.51166</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3655566097.465122</v>
+        <v>4880411931.534216</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003297520568076778</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1396709755719157</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02885248180417264</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>18</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2440206063.42229</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6410030351.370058</v>
+        <v>5548221419.986078</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005358096787636443</v>
-      </c>
-      <c r="G65" t="b">
+        <v>0.1329931996547124</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0258158897358087</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="H65" t="n">
-        <v>14</v>
+      <c r="I65" t="n">
+        <v>20</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2774110636.06267</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5928522068.2509</v>
+        <v>4008218444.736492</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003588775690992459</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1482546605015723</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03801853869851402</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2004109196.268223</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6451347254.977502</v>
+        <v>3199033423.3148</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004169765626001215</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.09151077546269114</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03590643274496975</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>19</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1599516712.983553</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8503756092.571805</v>
+        <v>5086813833.701613</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002281819937521914</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>12</v>
+        <v>0.115619658792086</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04400679530851539</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2543406978.376429</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4848513633.95511</v>
+        <v>2357697902.006648</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001054239747948656</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>13</v>
+        <v>0.1230399692826505</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05714440186523691</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1178849002.083936</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6456621859.662626</v>
+        <v>3325839308.517742</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003921952840520562</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13</v>
+        <v>0.07403287743178324</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03045872929162478</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>16</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1662919652.314344</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4543044108.267786</v>
+        <v>5490847991.029594</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003515040698310321</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1838896663653733</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02462697552608428</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>21</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2745424137.710215</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7345208595.255255</v>
+        <v>1688590409.753432</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001810355167675271</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>12</v>
+        <v>0.07717511754314751</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05229376890169381</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>844295201.3226488</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5293739196.071968</v>
+        <v>2431890055.004694</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001139025590260815</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13</v>
+        <v>0.0732139703906705</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04461169396836363</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>22</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1215945075.339767</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5322637862.979465</v>
+        <v>2948462706.548502</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003344155494016399</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>13</v>
+        <v>0.1312606973722181</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03141720106816809</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1474231423.017679</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6828288593.310989</v>
+        <v>1535951760.192059</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003286560437517914</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>11</v>
+        <v>0.1580159285050726</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03033983131554329</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>767975887.6388266</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4806589237.938416</v>
+        <v>4857714163.790974</v>
       </c>
       <c r="F76" t="n">
-        <v>0.003074345729105398</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.1034914253369391</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02377813356424724</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2428857102.444024</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5260235583.928665</v>
+        <v>1543552350.133174</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004382190217246474</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1807389791769095</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02337383725832274</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>771776169.0485606</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7421062281.81168</v>
+        <v>3411188345.293055</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004762079988693703</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>11</v>
+        <v>0.1079068587440559</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0496846990537665</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1705594180.431485</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7248981645.995466</v>
+        <v>1476320584.286278</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002246064075235649</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>12</v>
+        <v>0.1772734966580039</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0246488072417142</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>738160322.0565931</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6881918959.963427</v>
+        <v>5532701811.166587</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003438454057210159</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>18</v>
+        <v>0.1105955718692655</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03206915546670037</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2766350981.155078</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6375064487.940034</v>
+        <v>4196068655.165986</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004871704829908657</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.1255348757179739</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03255020133625702</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2098034297.958855</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5534456265.545086</v>
+        <v>5603271270.476314</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004399326998788953</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>10</v>
+        <v>0.2113083151938436</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02861110917403752</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2801635585.383909</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7280565452.84687</v>
+        <v>1508126284.71003</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002789604074176701</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1298652767667445</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03916078981748346</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>754063066.3408576</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7064053000.326634</v>
+        <v>2419670162.120971</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003440799055630846</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>15</v>
+        <v>0.1159255178882583</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04467825710040624</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1209835024.505566</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5285630390.990985</v>
+        <v>3560678010.268465</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002478346373615359</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1148244831025185</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03628763799086021</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>22</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1780339127.062247</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7252849359.16794</v>
+        <v>2299129582.362111</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00187200433829813</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>16</v>
+        <v>0.1559866477640901</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01725566896695008</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1149564860.301268</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3242448864.879521</v>
+        <v>1333669063.118951</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001320508590249455</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.190399057211474</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03265257642468638</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>666834621.2998199</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6736955913.666316</v>
+        <v>2397958986.077826</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005352704996594622</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>13</v>
+        <v>0.1452402065304535</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03697681713597236</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>22</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1198979463.890695</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6711306540.088432</v>
+        <v>2922732602.10346</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00518559780353765</v>
-      </c>
-      <c r="G89" t="b">
+        <v>0.1188672545311562</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03942222079258216</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="H89" t="n">
-        <v>12</v>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1461366344.70689</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4592598490.190899</v>
+        <v>1889266962.731754</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003304298750411282</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>10</v>
+        <v>0.1244670659003641</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03437302163379777</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>944633531.203679</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5515955113.235168</v>
+        <v>1899823966.543415</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004575185592074961</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>17</v>
+        <v>0.1375901106906313</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03920090220071297</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>949911968.7748736</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4149931793.687349</v>
+        <v>2059940586.890236</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003535071067207981</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1016237177358527</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04112952791059266</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1029970244.020099</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6065372408.351836</v>
+        <v>5026224698.612278</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001830311699761034</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>19</v>
+        <v>0.1215707183862836</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0343209173296915</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>17</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2513112283.470134</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5064073994.401842</v>
+        <v>2488793899.922354</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001513628929758472</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>17</v>
+        <v>0.1604791425208686</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03323831907700187</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1244397011.800067</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7659651438.328794</v>
+        <v>2206983965.907653</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002750636015015596</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>15</v>
+        <v>0.09960959740502906</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04641509627931462</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>14</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1103492040.205834</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9619952731.005426</v>
+        <v>1569311028.944901</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002864956796397432</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>15</v>
+        <v>0.1394493849993275</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03223831997940337</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>784655547.3063138</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>8092359519.359529</v>
+        <v>4154616544.420514</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003930369983438026</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>15</v>
+        <v>0.1525626120773544</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02831830760429317</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>19</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2077308340.902699</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7782480811.451311</v>
+        <v>3526896110.90315</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003761759492285823</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>21</v>
+        <v>0.1290502671472571</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03004491457525221</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1763448075.762167</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3164639206.698767</v>
+        <v>2461659043.909088</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004051560885060499</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.0922279093670331</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03255118595060165</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>18</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1230829468.741168</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5977855575.675973</v>
+        <v>3867289248.279758</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003579294187567572</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1280635669396299</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02462102241038581</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>17</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1933644684.108719</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8426726330.941141</v>
+        <v>3582512943.846532</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001126506961856532</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.1441846093820923</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04772581689323646</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>18</v>
+      <c r="I101" t="n">
+        <v>24</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1791256637.876268</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_57.xlsx
+++ b/output/fit_clients/fit_round_57.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1624376432.736892</v>
+        <v>2087186242.468456</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08941519679448105</v>
+        <v>0.09625786355698923</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03372504056448906</v>
+        <v>0.0417980500780687</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>812188161.3587874</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1932071243.820605</v>
+        <v>2523949586.953941</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1620624335389994</v>
+        <v>0.1773201747406664</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03441344717945285</v>
+        <v>0.04303036917170446</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>966035651.3251177</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4651567961.878372</v>
+        <v>4753480830.273146</v>
       </c>
       <c r="F4" t="n">
-        <v>0.118458073196673</v>
+        <v>0.1497258952968951</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03513009746020343</v>
+        <v>0.02661501645603231</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2325784041.166481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4180554168.55828</v>
+        <v>3105008020.653773</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07635315360486486</v>
+        <v>0.08567935488930743</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04960754560018323</v>
+        <v>0.03388190106958324</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2090277075.909295</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1733771960.939372</v>
+        <v>1938078820.729519</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1288843239302101</v>
+        <v>0.1075415922529984</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04217812442035649</v>
+        <v>0.04263788599703634</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>866886038.7586951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1896847129.512927</v>
+        <v>2748489868.02668</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06862490265416378</v>
+        <v>0.09815825503450856</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04115435054076436</v>
+        <v>0.04713878327478151</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>948423635.725354</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3866108843.965252</v>
+        <v>2958960219.786701</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1632691298943814</v>
+        <v>0.1578175228049962</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03079961818702099</v>
+        <v>0.0212697517293702</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1933054567.91489</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2228133992.067221</v>
+        <v>1550794929.635061</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1759212476001247</v>
+        <v>0.1463920101732132</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03479008627679855</v>
+        <v>0.03243710845375063</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1114066990.863185</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3855918007.840137</v>
+        <v>5399554269.696563</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2014814970695711</v>
+        <v>0.142247247367256</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04329835953652054</v>
+        <v>0.05250347812598519</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>24</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1927959014.549131</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3208669824.90027</v>
+        <v>2961668766.392407</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1547799244415551</v>
+        <v>0.1440978852110943</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04525382296752004</v>
+        <v>0.0332419688733589</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>24</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1604334869.846629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2022073091.209745</v>
+        <v>2663993328.871689</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1961969090457345</v>
+        <v>0.1810826101854211</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04664848392865613</v>
+        <v>0.04468561604987573</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>19</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1011036473.945742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5300930114.700524</v>
+        <v>4949134294.971277</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09150561415342243</v>
+        <v>0.1004381101697306</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0229613260703029</v>
+        <v>0.02996874342959403</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2650465046.089849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3369105450.135246</v>
+        <v>3597130382.026362</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1187991682839031</v>
+        <v>0.1725870370916113</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02768517495865313</v>
+        <v>0.04325602338992041</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1684552732.657332</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1305668207.470755</v>
+        <v>1590608908.366575</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07086344747818764</v>
+        <v>0.0893192693431977</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03086509500758107</v>
+        <v>0.04394650393558242</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>652834145.072086</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1897570740.511952</v>
+        <v>2340317940.002211</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09872878562303099</v>
+        <v>0.08403106734002895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0470965389798441</v>
+        <v>0.03403110755321563</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>948785454.7860483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3903907292.12722</v>
+        <v>4778155040.230123</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1088611994040339</v>
+        <v>0.1145649679477676</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0429205729423845</v>
+        <v>0.03272662900891234</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1951953685.295833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2722576447.622179</v>
+        <v>3752604739.034052</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1481215837469958</v>
+        <v>0.1282329484590888</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02341202461918398</v>
+        <v>0.03091156341780465</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1361288274.063032</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>935916678.5354488</v>
+        <v>1022019065.535196</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1596139536630006</v>
+        <v>0.184425207077622</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01926578525164961</v>
+        <v>0.02205379359279462</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>467958352.8345442</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2454736622.7218</v>
+        <v>1763786973.669814</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1404123059527728</v>
+        <v>0.1358779399768397</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0277197916356682</v>
+        <v>0.02296000085746386</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1227368289.153459</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2535603221.633639</v>
+        <v>1893077487.28987</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06393183805674295</v>
+        <v>0.06472017415264032</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03637817784344126</v>
+        <v>0.04044344547533601</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1267801595.473286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2524188181.233002</v>
+        <v>2502075503.547129</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1285357401274134</v>
+        <v>0.1448455374386035</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05436158684256128</v>
+        <v>0.04773456782134539</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1262094180.525689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1256862301.839735</v>
+        <v>949334521.3139052</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1632818534333867</v>
+        <v>0.1820524407994986</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04858523878518973</v>
+        <v>0.04715892818560227</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>628431177.7067639</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2737678048.980468</v>
+        <v>4150740478.081135</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1170097125602571</v>
+        <v>0.1019905455451224</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03658079474492609</v>
+        <v>0.02378257557064243</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1368839077.270645</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1123588219.976911</v>
+        <v>1084199111.400053</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1191424700563711</v>
+        <v>0.116580095906728</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02587587752649989</v>
+        <v>0.03050911831013046</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>561794145.4165345</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1321374298.263393</v>
+        <v>1018980165.878539</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09555266048221001</v>
+        <v>0.07969409801953881</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03632152369228339</v>
+        <v>0.03138773181838913</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>660687199.7725976</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4496654775.28754</v>
+        <v>3283609713.367854</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1376449156872364</v>
+        <v>0.1551354351218837</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02101514073893386</v>
+        <v>0.01667810418657657</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2248327373.012327</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2976080877.176537</v>
+        <v>3179928420.723161</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1390220207914356</v>
+        <v>0.131031542223566</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03774314292684964</v>
+        <v>0.04739142670190063</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1488040447.635037</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4474968377.079054</v>
+        <v>5549973288.518206</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1009319056053034</v>
+        <v>0.09846656370949279</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02900207712235949</v>
+        <v>0.02930209065639379</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>26</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2237484172.406403</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2110916277.38821</v>
+        <v>2348189181.768085</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1352917243294132</v>
+        <v>0.1269303990047025</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03391055372017393</v>
+        <v>0.03583697500492061</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1055458188.653907</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1422094166.276299</v>
+        <v>1168799513.706999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07640793327233966</v>
+        <v>0.06782931531093117</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03301889612362263</v>
+        <v>0.04688311444295075</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>711046982.230786</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1619559321.361174</v>
+        <v>1344161406.470277</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1116750060121275</v>
+        <v>0.08991362450571264</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03305437156047857</v>
+        <v>0.03753156738576501</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>809779753.6402576</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2110379320.191023</v>
+        <v>3105508158.153397</v>
       </c>
       <c r="F33" t="n">
-        <v>0.131520618203669</v>
+        <v>0.1303983468620644</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04466121769482316</v>
+        <v>0.04024774099989174</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>16</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1055189731.363189</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1088028018.557451</v>
+        <v>1570483739.155452</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1055685520391417</v>
+        <v>0.08629761933543834</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02027577446272593</v>
+        <v>0.02501052373191831</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>544014032.5728428</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1345798665.790328</v>
+        <v>854332911.9561975</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08283155367726538</v>
+        <v>0.07641016887085247</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04229888402563085</v>
+        <v>0.04413665728930233</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>672899275.4931656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2218319238.027064</v>
+        <v>3205740388.95944</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1722899413289415</v>
+        <v>0.1571719352552773</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02764852873617662</v>
+        <v>0.02443421422301802</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1109159663.443575</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2507782747.619116</v>
+        <v>2582780031.215626</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09340548085953518</v>
+        <v>0.09915161971595102</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03383848967139679</v>
+        <v>0.0418922365699009</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1253891470.831008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1463612216.552097</v>
+        <v>1438630682.202008</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1099837228701699</v>
+        <v>0.1049203958421875</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03523515331387828</v>
+        <v>0.02610399537747482</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>731806162.5272338</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1913338469.709089</v>
+        <v>2056220864.498072</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1826669977190239</v>
+        <v>0.1266705789278585</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02102377625494811</v>
+        <v>0.02632147521680485</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>956669242.4355563</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1416588316.81397</v>
+        <v>1246935293.335138</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1192380686165628</v>
+        <v>0.1613027372121816</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0452260716250444</v>
+        <v>0.05226233682441132</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>708294145.3666606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2726273334.561692</v>
+        <v>2548007255.405967</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1633041320386212</v>
+        <v>0.1604475883845694</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04237000142096253</v>
+        <v>0.03752359128676636</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1363136670.338667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4358265448.643279</v>
+        <v>4209805201.097771</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1007076807093619</v>
+        <v>0.1183004527048154</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03918484238184099</v>
+        <v>0.03910610496449626</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2179132778.147919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2378353174.280086</v>
+        <v>2625646896.157527</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1557101323005554</v>
+        <v>0.1366438031114032</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02495422013213941</v>
+        <v>0.02126500097087935</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1189176647.906222</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1794773662.819166</v>
+        <v>2106575935.158914</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07470521719289004</v>
+        <v>0.1002268921665237</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02674687674546422</v>
+        <v>0.03390711215295239</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>897386896.6889194</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2146045902.062023</v>
+        <v>2221279312.653471</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1335251218169606</v>
+        <v>0.1787327810688092</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05263974133204579</v>
+        <v>0.0455940935018702</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1073022956.486374</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3667779997.212373</v>
+        <v>5701105283.869753</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1767732100852492</v>
+        <v>0.1715773459294642</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05066570852380754</v>
+        <v>0.05194271149499366</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>20</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1833889949.004526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4111795475.381279</v>
+        <v>4131787876.381146</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1264006118083894</v>
+        <v>0.132300069719317</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04610971600571823</v>
+        <v>0.03859800630117706</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2055897743.048146</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3770016635.530832</v>
+        <v>3173435039.661518</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08348148324193466</v>
+        <v>0.09454184842917997</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03116782959185336</v>
+        <v>0.03282316242182831</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>18</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1885008365.373165</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1323347162.475279</v>
+        <v>1273200686.933337</v>
       </c>
       <c r="F49" t="n">
-        <v>0.158483504674974</v>
+        <v>0.1660781404835689</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0360882256058696</v>
+        <v>0.04146552112497452</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>661673640.6218432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2962488271.745361</v>
+        <v>3959202272.154337</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1696353254327733</v>
+        <v>0.1202143739108369</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05328177272919714</v>
+        <v>0.04075147235141498</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>19</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1481244198.266002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1074204247.384491</v>
+        <v>1167260213.534017</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1397795293936516</v>
+        <v>0.1192591923865018</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04124781265784677</v>
+        <v>0.03672128885473717</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>537102195.5176214</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4855667527.572399</v>
+        <v>3847513617.775101</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1122758866848125</v>
+        <v>0.1039197101180378</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04911627147132729</v>
+        <v>0.05557693396330788</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>23</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2427833769.780575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3566404338.731588</v>
+        <v>3784580377.321982</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1396508442566666</v>
+        <v>0.1288317326288175</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02955935251177414</v>
+        <v>0.02466876700892529</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>16</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1783202162.559889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4356658814.61002</v>
+        <v>3567328452.55424</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1365270526230891</v>
+        <v>0.1093400102235164</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04894070543706767</v>
+        <v>0.05303883303792074</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2178329499.253886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4243500044.049129</v>
+        <v>4519128757.666417</v>
       </c>
       <c r="F55" t="n">
-        <v>0.138519300610024</v>
+        <v>0.1407671280684373</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03041023158911524</v>
+        <v>0.02044050815827667</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2121750007.561512</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1266047390.169627</v>
+        <v>1603111584.396472</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1310550303567347</v>
+        <v>0.123962564816586</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03840050088038538</v>
+        <v>0.04940299359849122</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>633023771.8973601</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2898299337.392269</v>
+        <v>3796415276.773124</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1343428354316961</v>
+        <v>0.1482452241292866</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02520021764464555</v>
+        <v>0.01769786679336426</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>18</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1449149664.46521</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1706594327.902709</v>
+        <v>1709830021.258543</v>
       </c>
       <c r="F58" t="n">
-        <v>0.18167937995707</v>
+        <v>0.1689193909175865</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02738713408010655</v>
+        <v>0.02611073758208042</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>853297176.1114578</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4800922725.794335</v>
+        <v>3520576604.481277</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09348728655027901</v>
+        <v>0.09188693307820869</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04509786091035038</v>
+        <v>0.0449923706926525</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2400461300.096938</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2753407906.270302</v>
+        <v>2899845575.427897</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1462710540874759</v>
+        <v>0.1897157032555475</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02388794200591269</v>
+        <v>0.03096760391128664</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>18</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1376703997.503571</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2261390576.475289</v>
+        <v>2864488789.111263</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1303515219814532</v>
+        <v>0.1521352223154013</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0221337562572109</v>
+        <v>0.02732899904924562</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1130695338.238312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1577297985.603396</v>
+        <v>1833812360.989525</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1238361631331324</v>
+        <v>0.1879331133536679</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04555053348979488</v>
+        <v>0.03339399064417015</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>788648987.3491147</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3967213763.563841</v>
+        <v>3417810225.326533</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07242927651823879</v>
+        <v>0.07671959257436352</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04142382852574569</v>
+        <v>0.04635228112946404</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>17</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1983606945.51166</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4880411931.534216</v>
+        <v>4536098028.062786</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1396709755719157</v>
+        <v>0.1834753469564702</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02885248180417264</v>
+        <v>0.03316287454661069</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>18</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2440206063.42229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5548221419.986078</v>
+        <v>4492539574.96955</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1329931996547124</v>
+        <v>0.1238072033952468</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0258158897358087</v>
+        <v>0.02489749078936056</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>20</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2774110636.06267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4008218444.736492</v>
+        <v>4581396300.414433</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1482546605015723</v>
+        <v>0.112860289143469</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03801853869851402</v>
+        <v>0.04956316565503607</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2004109196.268223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3199033423.3148</v>
+        <v>3117401282.927235</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09151077546269114</v>
+        <v>0.07135163110219379</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03590643274496975</v>
+        <v>0.05077299751218482</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>19</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1599516712.983553</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5086813833.701613</v>
+        <v>4584141586.261008</v>
       </c>
       <c r="F68" t="n">
-        <v>0.115619658792086</v>
+        <v>0.1402156230499814</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04400679530851539</v>
+        <v>0.03927105397973472</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>18</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2543406978.376429</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2357697902.006648</v>
+        <v>1950310371.398333</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1230399692826505</v>
+        <v>0.1578671058415858</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05714440186523691</v>
+        <v>0.05959400620151886</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1178849002.083936</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3325839308.517742</v>
+        <v>2462966992.726006</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07403287743178324</v>
+        <v>0.07088492518906719</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03045872929162478</v>
+        <v>0.03240177575209052</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>16</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1662919652.314344</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5490847991.029594</v>
+        <v>4872265285.814146</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1838896663653733</v>
+        <v>0.1686006568421993</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02462697552608428</v>
+        <v>0.02839014804044471</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>21</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2745424137.710215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1688590409.753432</v>
+        <v>2214550462.384832</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07717511754314751</v>
+        <v>0.0939965226763132</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05229376890169381</v>
+        <v>0.04647576058264383</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>844295201.3226488</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2431890055.004694</v>
+        <v>2668697373.451125</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0732139703906705</v>
+        <v>0.1091987683556729</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04461169396836363</v>
+        <v>0.03560222970165444</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>22</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1215945075.339767</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2948462706.548502</v>
+        <v>3387140803.788952</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1312606973722181</v>
+        <v>0.1752234407418837</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03141720106816809</v>
+        <v>0.03337403094875906</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1474231423.017679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1535951760.192059</v>
+        <v>2369571100.343235</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1580159285050726</v>
+        <v>0.1044388867843473</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03033983131554329</v>
+        <v>0.03794519741687168</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>767975887.6388266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4857714163.790974</v>
+        <v>4991569212.702163</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1034914253369391</v>
+        <v>0.1051853980206279</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02377813356424724</v>
+        <v>0.03371483597718246</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>12</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2428857102.444024</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1543552350.133174</v>
+        <v>1405984350.656906</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1807389791769095</v>
+        <v>0.1188570846255324</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02337383725832274</v>
+        <v>0.03050797560584856</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>771776169.0485606</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3411188345.293055</v>
+        <v>3162511782.374143</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1079068587440559</v>
+        <v>0.1182848741321254</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0496846990537665</v>
+        <v>0.05271432932629574</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>20</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1705594180.431485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1476320584.286278</v>
+        <v>1404344262.717505</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1772734966580039</v>
+        <v>0.1603138489428438</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0246488072417142</v>
+        <v>0.03428058320058669</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>738160322.0565931</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5532701811.166587</v>
+        <v>3832992436.342859</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1105955718692655</v>
+        <v>0.09696243854987309</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03206915546670037</v>
+        <v>0.02566963076322687</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2766350981.155078</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4196068655.165986</v>
+        <v>4844816501.083241</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1255348757179739</v>
+        <v>0.09169632803172272</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03255020133625702</v>
+        <v>0.02602888319865781</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>12</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2098034297.958855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5603271270.476314</v>
+        <v>4481540046.146186</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2113083151938436</v>
+        <v>0.1837502457542299</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02861110917403752</v>
+        <v>0.02569875185683525</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2801635585.383909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1508126284.71003</v>
+        <v>1796964588.816188</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1298652767667445</v>
+        <v>0.1198210811615106</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03916078981748346</v>
+        <v>0.03126731921375651</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>754063066.3408576</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2419670162.120971</v>
+        <v>1913441575.437086</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1159255178882583</v>
+        <v>0.1085360799848391</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04467825710040624</v>
+        <v>0.04275849567510304</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1209835024.505566</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3560678010.268465</v>
+        <v>2992367654.266109</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1148244831025185</v>
+        <v>0.1347345831649048</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03628763799086021</v>
+        <v>0.04515947535964755</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1780339127.062247</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2299129582.362111</v>
+        <v>2208506527.298009</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1559866477640901</v>
+        <v>0.1658358239825754</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01725566896695008</v>
+        <v>0.01731083880563388</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1149564860.301268</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1333669063.118951</v>
+        <v>1080631523.069261</v>
       </c>
       <c r="F87" t="n">
-        <v>0.190399057211474</v>
+        <v>0.1602541962825827</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03265257642468638</v>
+        <v>0.03724720668181443</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>666834621.2998199</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2397958986.077826</v>
+        <v>2415762061.593109</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1452402065304535</v>
+        <v>0.1644445744765647</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03697681713597236</v>
+        <v>0.03684910142756338</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>22</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1198979463.890695</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2922732602.10346</v>
+        <v>2544048264.03396</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1188672545311562</v>
+        <v>0.1545055752235119</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03942222079258216</v>
+        <v>0.03907025318275052</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>19</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1461366344.70689</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1889266962.731754</v>
+        <v>2048442977.677289</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1244670659003641</v>
+        <v>0.1291117371898902</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03437302163379777</v>
+        <v>0.03881359929402632</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>944633531.203679</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1899823966.543415</v>
+        <v>1718615878.36919</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1375901106906313</v>
+        <v>0.186701841602656</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03920090220071297</v>
+        <v>0.06017569941008896</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>949911968.7748736</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2059940586.890236</v>
+        <v>2988664163.427978</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1016237177358527</v>
+        <v>0.08138509741258307</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04112952791059266</v>
+        <v>0.03588485835138134</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1029970244.020099</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5026224698.612278</v>
+        <v>4282231832.916884</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1215707183862836</v>
+        <v>0.1015236635119197</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0343209173296915</v>
+        <v>0.03887711895463408</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2513112283.470134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2488793899.922354</v>
+        <v>2156448730.755493</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1604791425208686</v>
+        <v>0.1045131051374155</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03323831907700187</v>
+        <v>0.03603155986660348</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1244397011.800067</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2206983965.907653</v>
+        <v>2146507712.357201</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09960959740502906</v>
+        <v>0.1153338780505779</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04641509627931462</v>
+        <v>0.04230609940174061</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1103492040.205834</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1569311028.944901</v>
+        <v>1695436266.149362</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1394493849993275</v>
+        <v>0.1029830184858557</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03223831997940337</v>
+        <v>0.04709553619118446</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>784655547.3063138</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4154616544.420514</v>
+        <v>4604451717.860869</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1525626120773544</v>
+        <v>0.1771336481650166</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02831830760429317</v>
+        <v>0.02384855538776426</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>19</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2077308340.902699</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3526896110.90315</v>
+        <v>3143941776.652466</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1290502671472571</v>
+        <v>0.1028668229275346</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03004491457525221</v>
+        <v>0.02047075088325963</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1763448075.762167</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2461659043.909088</v>
+        <v>2268434631.585746</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0922279093670331</v>
+        <v>0.08988452049035704</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03255118595060165</v>
+        <v>0.03502641527773117</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1230829468.741168</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3867289248.279758</v>
+        <v>3565334197.539657</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1280635669396299</v>
+        <v>0.1628941949608676</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02462102241038581</v>
+        <v>0.0250732058348577</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>17</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1933644684.108719</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3582512943.846532</v>
+        <v>2762772246.367199</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1441846093820923</v>
+        <v>0.1713699880909497</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04772581689323646</v>
+        <v>0.03577783117932181</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>24</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1791256637.876268</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_57.xlsx
+++ b/output/fit_clients/fit_round_57.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2087186242.468456</v>
+        <v>2182001762.528118</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09625786355698923</v>
+        <v>0.1011404338526515</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0417980500780687</v>
+        <v>0.03581600750159198</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2523949586.953941</v>
+        <v>2454341223.237795</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1773201747406664</v>
+        <v>0.1582180762439631</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04303036917170446</v>
+        <v>0.04381888450573234</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4753480830.273146</v>
+        <v>4423909065.210774</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1497258952968951</v>
+        <v>0.1031323732827902</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02661501645603231</v>
+        <v>0.02654383248722868</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3105008020.653773</v>
+        <v>4002763913.175911</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08567935488930743</v>
+        <v>0.07271317570647898</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03388190106958324</v>
+        <v>0.0391218037596135</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1938078820.729519</v>
+        <v>2313713454.854131</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1075415922529984</v>
+        <v>0.1017100160304167</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04263788599703634</v>
+        <v>0.04487788403814712</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2748489868.02668</v>
+        <v>2625711865.052272</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09815825503450856</v>
+        <v>0.07736449460472275</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04713878327478151</v>
+        <v>0.04328312299408239</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2958960219.786701</v>
+        <v>2672482179.815394</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1578175228049962</v>
+        <v>0.1899698888726319</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0212697517293702</v>
+        <v>0.02883864178565008</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1550794929.635061</v>
+        <v>2076722054.722253</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1463920101732132</v>
+        <v>0.1461348291621167</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03243710845375063</v>
+        <v>0.02463715309628416</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5399554269.696563</v>
+        <v>5306426910.128337</v>
       </c>
       <c r="F10" t="n">
-        <v>0.142247247367256</v>
+        <v>0.2088823614219009</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05250347812598519</v>
+        <v>0.03732371093584891</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2961668766.392407</v>
+        <v>3683875386.559805</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1440978852110943</v>
+        <v>0.1299723455451598</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0332419688733589</v>
+        <v>0.03632794991781817</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2663993328.871689</v>
+        <v>2368380911.522786</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1810826101854211</v>
+        <v>0.196956672220974</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04468561604987573</v>
+        <v>0.03569635078215729</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4949134294.971277</v>
+        <v>4473080199.316776</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1004381101697306</v>
+        <v>0.09787826968672664</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02996874342959403</v>
+        <v>0.028492490683199</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3597130382.026362</v>
+        <v>3243521728.486979</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1725870370916113</v>
+        <v>0.1416523180747259</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04325602338992041</v>
+        <v>0.02779151754388783</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1590608908.366575</v>
+        <v>1397588850.955237</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0893192693431977</v>
+        <v>0.08145656564672524</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04394650393558242</v>
+        <v>0.04207507037985496</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2340317940.002211</v>
+        <v>2322219716.335117</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08403106734002895</v>
+        <v>0.08121839051167949</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03403110755321563</v>
+        <v>0.0359408646816573</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4778155040.230123</v>
+        <v>3833233779.10377</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1145649679477676</v>
+        <v>0.1238286404082991</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03272662900891234</v>
+        <v>0.04238081226542399</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3752604739.034052</v>
+        <v>2843582215.955775</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1282329484590888</v>
+        <v>0.1804547106075617</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03091156341780465</v>
+        <v>0.03189393576615281</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1022019065.535196</v>
+        <v>1115353408.795522</v>
       </c>
       <c r="F19" t="n">
-        <v>0.184425207077622</v>
+        <v>0.1760268352837347</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02205379359279462</v>
+        <v>0.01932619678851453</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1763786973.669814</v>
+        <v>1695378003.196702</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1358779399768397</v>
+        <v>0.09785990241117573</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02296000085746386</v>
+        <v>0.02559274586876012</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1893077487.28987</v>
+        <v>2346902361.644784</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06472017415264032</v>
+        <v>0.08402853804978364</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04044344547533601</v>
+        <v>0.04440123945215541</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2502075503.547129</v>
+        <v>3540556286.699081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1448455374386035</v>
+        <v>0.09778643463510074</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04773456782134539</v>
+        <v>0.05382711174033813</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>949334521.3139052</v>
+        <v>1057224938.841692</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1820524407994986</v>
+        <v>0.167417178831271</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04715892818560227</v>
+        <v>0.03380986286033461</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4150740478.081135</v>
+        <v>3550147327.930941</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1019905455451224</v>
+        <v>0.1321103200793596</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02378257557064243</v>
+        <v>0.02330016559353747</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1084199111.400053</v>
+        <v>1062479534.594503</v>
       </c>
       <c r="F25" t="n">
-        <v>0.116580095906728</v>
+        <v>0.09400467102076751</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03050911831013046</v>
+        <v>0.01871249630679838</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1018980165.878539</v>
+        <v>878126403.2333187</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07969409801953881</v>
+        <v>0.08359305105201562</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03138773181838913</v>
+        <v>0.0238968439954816</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3283609713.367854</v>
+        <v>4201050208.101102</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1551354351218837</v>
+        <v>0.1437694931278369</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01667810418657657</v>
+        <v>0.02066833876744432</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3179928420.723161</v>
+        <v>3600146422.666265</v>
       </c>
       <c r="F28" t="n">
-        <v>0.131031542223566</v>
+        <v>0.1517942586292432</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04739142670190063</v>
+        <v>0.0317697366957958</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5549973288.518206</v>
+        <v>4682647638.244581</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09846656370949279</v>
+        <v>0.1384240196754701</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02930209065639379</v>
+        <v>0.04042205840500469</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2348189181.768085</v>
+        <v>1487622307.046765</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1269303990047025</v>
+        <v>0.08518925545875924</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03583697500492061</v>
+        <v>0.03613800696360588</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1168799513.706999</v>
+        <v>1210362295.367615</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06782931531093117</v>
+        <v>0.07013282697926147</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04688311444295075</v>
+        <v>0.04756453841540839</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1344161406.470277</v>
+        <v>1332444931.098774</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08991362450571264</v>
+        <v>0.08458955577415551</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03753156738576501</v>
+        <v>0.03023540891808001</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3105508158.153397</v>
+        <v>1905464588.113375</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1303983468620644</v>
+        <v>0.1750194537709616</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04024774099989174</v>
+        <v>0.05332736737651984</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1570483739.155452</v>
+        <v>1210160105.776897</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08629761933543834</v>
+        <v>0.1167032733636044</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02501052373191831</v>
+        <v>0.02383475544002672</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>854332911.9561975</v>
+        <v>1124344070.274179</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07641016887085247</v>
+        <v>0.1014701495730432</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04413665728930233</v>
+        <v>0.03044595704147296</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3205740388.95944</v>
+        <v>3146725359.185316</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1571719352552773</v>
+        <v>0.1802496819333463</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02443421422301802</v>
+        <v>0.02450921661713614</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2582780031.215626</v>
+        <v>2241472489.861857</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09915161971595102</v>
+        <v>0.1117110023081526</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0418922365699009</v>
+        <v>0.03930005965593724</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1438630682.202008</v>
+        <v>1369854190.031808</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1049203958421875</v>
+        <v>0.08924281639209024</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02610399537747482</v>
+        <v>0.03328218693839418</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2056220864.498072</v>
+        <v>1997829155.029166</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1266705789278585</v>
+        <v>0.1273560650076845</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02632147521680485</v>
+        <v>0.02934744150422192</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1246935293.335138</v>
+        <v>1654041999.442847</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1613027372121816</v>
+        <v>0.1424641175196605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05226233682441132</v>
+        <v>0.04076656868201124</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2548007255.405967</v>
+        <v>2194978425.590943</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1604475883845694</v>
+        <v>0.1297482337722363</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03752359128676636</v>
+        <v>0.03629198207222602</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4209805201.097771</v>
+        <v>2631092390.507406</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1183004527048154</v>
+        <v>0.08326598823201667</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03910610496449626</v>
+        <v>0.03986072391387788</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2625646896.157527</v>
+        <v>2279683662.81082</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1366438031114032</v>
+        <v>0.1716288921288838</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02126500097087935</v>
+        <v>0.01974308648078605</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2106575935.158914</v>
+        <v>2017732266.717891</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1002268921665237</v>
+        <v>0.06440953391941825</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03390711215295239</v>
+        <v>0.0249450095243274</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2221279312.653471</v>
+        <v>2148870646.718798</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1787327810688092</v>
+        <v>0.158928867922338</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0455940935018702</v>
+        <v>0.0469039068167781</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5701105283.869753</v>
+        <v>5141341740.284295</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1715773459294642</v>
+        <v>0.1770107623854807</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05194271149499366</v>
+        <v>0.0531695474734202</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4131787876.381146</v>
+        <v>3716635520.043979</v>
       </c>
       <c r="F47" t="n">
-        <v>0.132300069719317</v>
+        <v>0.1350313033248564</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03859800630117706</v>
+        <v>0.0454904090550015</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3173435039.661518</v>
+        <v>3311582700.923604</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09454184842917997</v>
+        <v>0.09367498319402727</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03282316242182831</v>
+        <v>0.0301776572072038</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1273200686.933337</v>
+        <v>1989053826.801529</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1660781404835689</v>
+        <v>0.1189796478761685</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04146552112497452</v>
+        <v>0.04128422191843891</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3959202272.154337</v>
+        <v>2793597889.518702</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1202143739108369</v>
+        <v>0.1096222666972708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04075147235141498</v>
+        <v>0.04464436596420137</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1167260213.534017</v>
+        <v>1088553722.516136</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1192591923865018</v>
+        <v>0.1289421244944373</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03672128885473717</v>
+        <v>0.04638322221034658</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3847513617.775101</v>
+        <v>5202332414.610085</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1039197101180378</v>
+        <v>0.1360375676121511</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05557693396330788</v>
+        <v>0.03816134304819611</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3784580377.321982</v>
+        <v>2554638718.978167</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1288317326288175</v>
+        <v>0.1697298568003823</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02466876700892529</v>
+        <v>0.03273034050155842</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3567328452.55424</v>
+        <v>4822628754.704139</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1093400102235164</v>
+        <v>0.1663679069439451</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05303883303792074</v>
+        <v>0.04815869713322956</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4519128757.666417</v>
+        <v>4833663495.475737</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1407671280684373</v>
+        <v>0.170941319658746</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02044050815827667</v>
+        <v>0.0228010808230962</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1603111584.396472</v>
+        <v>1818700001.502468</v>
       </c>
       <c r="F56" t="n">
-        <v>0.123962564816586</v>
+        <v>0.1131762368151897</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04940299359849122</v>
+        <v>0.05400451529825335</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3796415276.773124</v>
+        <v>4162066916.939439</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1482452241292866</v>
+        <v>0.1622210414752374</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01769786679336426</v>
+        <v>0.01973138692848253</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1709830021.258543</v>
+        <v>1491285190.258291</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1689193909175865</v>
+        <v>0.1280417680582438</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02611073758208042</v>
+        <v>0.02459901365546787</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3520576604.481277</v>
+        <v>5125849176.512417</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09188693307820869</v>
+        <v>0.0885350653106228</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0449923706926525</v>
+        <v>0.04088391123453972</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2899845575.427897</v>
+        <v>2590087740.842715</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1897157032555475</v>
+        <v>0.1329054984662291</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03096760391128664</v>
+        <v>0.02147348424977358</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2864488789.111263</v>
+        <v>2814910510.628839</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1521352223154013</v>
+        <v>0.1409284373915554</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02732899904924562</v>
+        <v>0.02040663454579327</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1833812360.989525</v>
+        <v>1909090292.179173</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1879331133536679</v>
+        <v>0.1221398800292174</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03339399064417015</v>
+        <v>0.0313087251323272</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3417810225.326533</v>
+        <v>4942985959.220911</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07671959257436352</v>
+        <v>0.09105333578607661</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04635228112946404</v>
+        <v>0.03450623446518809</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4536098028.062786</v>
+        <v>4685442398.231279</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1834753469564702</v>
+        <v>0.1821481428388556</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03316287454661069</v>
+        <v>0.03136632049736714</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4492539574.96955</v>
+        <v>3697647411.781266</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1238072033952468</v>
+        <v>0.1589115554454378</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02489749078936056</v>
+        <v>0.02709713130517532</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4581396300.414433</v>
+        <v>3960649178.716428</v>
       </c>
       <c r="F66" t="n">
-        <v>0.112860289143469</v>
+        <v>0.1125479204196791</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04956316565503607</v>
+        <v>0.03803964600423709</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3117401282.927235</v>
+        <v>2857095856.632272</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07135163110219379</v>
+        <v>0.1017425955651025</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05077299751218482</v>
+        <v>0.04113632595253936</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4584141586.261008</v>
+        <v>4710119959.884608</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1402156230499814</v>
+        <v>0.09765521789900196</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03927105397973472</v>
+        <v>0.04718641193496265</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1950310371.398333</v>
+        <v>2005244005.518453</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1578671058415858</v>
+        <v>0.115866772255608</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05959400620151886</v>
+        <v>0.0517051987218092</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2462966992.726006</v>
+        <v>2686319867.474189</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07088492518906719</v>
+        <v>0.1015095415901283</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03240177575209052</v>
+        <v>0.04638042351399155</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4872265285.814146</v>
+        <v>4123563740.199316</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1686006568421993</v>
+        <v>0.1660666046565905</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02839014804044471</v>
+        <v>0.02240231201310483</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2214550462.384832</v>
+        <v>1998160902.846705</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0939965226763132</v>
+        <v>0.08540670271677313</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04647576058264383</v>
+        <v>0.04536768847843219</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2668697373.451125</v>
+        <v>2169866914.349262</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1091987683556729</v>
+        <v>0.09824059268873159</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03560222970165444</v>
+        <v>0.0416603432200883</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3387140803.788952</v>
+        <v>3926883189.834635</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1752234407418837</v>
+        <v>0.1186664378733066</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03337403094875906</v>
+        <v>0.02410102060462331</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2369571100.343235</v>
+        <v>2343643354.957782</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1044388867843473</v>
+        <v>0.104301627832705</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03794519741687168</v>
+        <v>0.02410269282650333</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4991569212.702163</v>
+        <v>4274769501.345123</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1051853980206279</v>
+        <v>0.1007951429570367</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03371483597718246</v>
+        <v>0.0319299158474415</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1405984350.656906</v>
+        <v>2127934842.271532</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1188570846255324</v>
+        <v>0.1543179598974744</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03050797560584856</v>
+        <v>0.01975921985161368</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3162511782.374143</v>
+        <v>4607560009.038228</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1182848741321254</v>
+        <v>0.1102035458440011</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05271432932629574</v>
+        <v>0.0410711992100803</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1404344262.717505</v>
+        <v>1377124779.479158</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1603138489428438</v>
+        <v>0.1320994972198357</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03428058320058669</v>
+        <v>0.0387611921297556</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3832992436.342859</v>
+        <v>4383177206.774964</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09696243854987309</v>
+        <v>0.09985334796824086</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02566963076322687</v>
+        <v>0.0384848857950283</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4844816501.083241</v>
+        <v>3692352336.718643</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09169632803172272</v>
+        <v>0.09801085629731682</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02602888319865781</v>
+        <v>0.03288829082697028</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4481540046.146186</v>
+        <v>4877737118.393625</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1837502457542299</v>
+        <v>0.2016817732361498</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02569875185683525</v>
+        <v>0.01786702042209198</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1796964588.816188</v>
+        <v>1576071483.683102</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1198210811615106</v>
+        <v>0.1370662439321694</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03126731921375651</v>
+        <v>0.0346573167589929</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1913441575.437086</v>
+        <v>2103766702.421241</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1085360799848391</v>
+        <v>0.09981854886153653</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04275849567510304</v>
+        <v>0.04741671175767913</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2992367654.266109</v>
+        <v>2919428085.695524</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1347345831649048</v>
+        <v>0.1551130398457779</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04515947535964755</v>
+        <v>0.03618686223643478</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2208506527.298009</v>
+        <v>2295840550.774094</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1658358239825754</v>
+        <v>0.1163017314267655</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01731083880563388</v>
+        <v>0.01742786921229543</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1080631523.069261</v>
+        <v>1109125252.290118</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1602541962825827</v>
+        <v>0.1613283374813632</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03724720668181443</v>
+        <v>0.02733348570593589</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2415762061.593109</v>
+        <v>2948250806.290368</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1644445744765647</v>
+        <v>0.159194306172515</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03684910142756338</v>
+        <v>0.02553515891011904</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2544048264.03396</v>
+        <v>2952844942.178225</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1545055752235119</v>
+        <v>0.1264465204421917</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03907025318275052</v>
+        <v>0.03893236824382475</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2048442977.677289</v>
+        <v>1989588001.096735</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1291117371898902</v>
+        <v>0.1164821367043457</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03881359929402632</v>
+        <v>0.05616983453527702</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1718615878.36919</v>
+        <v>1713201908.17004</v>
       </c>
       <c r="F91" t="n">
-        <v>0.186701841602656</v>
+        <v>0.1611862813772262</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06017569941008896</v>
+        <v>0.06066506190017741</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2988664163.427978</v>
+        <v>2411983003.391674</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08138509741258307</v>
+        <v>0.1051059768519773</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03588485835138134</v>
+        <v>0.04246193524955672</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4282231832.916884</v>
+        <v>4107609139.415229</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1015236635119197</v>
+        <v>0.1072532380066599</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03887711895463408</v>
+        <v>0.03891854733501784</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2156448730.755493</v>
+        <v>1659594826.282078</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1045131051374155</v>
+        <v>0.1529967071964722</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03603155986660348</v>
+        <v>0.02934377550786706</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2146507712.357201</v>
+        <v>2393496768.2319</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1153338780505779</v>
+        <v>0.09276476877286451</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04230609940174061</v>
+        <v>0.03930106913013125</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1695436266.149362</v>
+        <v>2020224159.021745</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1029830184858557</v>
+        <v>0.09140572285918205</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04709553619118446</v>
+        <v>0.03567830777696829</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4604451717.860869</v>
+        <v>4654741223.595241</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1771336481650166</v>
+        <v>0.1562190100632302</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02384855538776426</v>
+        <v>0.01901447223564594</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3143941776.652466</v>
+        <v>2747286440.047183</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1028668229275346</v>
+        <v>0.09711972855804628</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02047075088325963</v>
+        <v>0.02415176500471878</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2268434631.585746</v>
+        <v>3049427954.154763</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08988452049035704</v>
+        <v>0.1473931845900646</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03502641527773117</v>
+        <v>0.02172901881551012</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3565334197.539657</v>
+        <v>3354133890.663939</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1628941949608676</v>
+        <v>0.1212663373817366</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0250732058348577</v>
+        <v>0.0205944769608918</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2762772246.367199</v>
+        <v>3099398682.136658</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1713699880909497</v>
+        <v>0.1761219824878949</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03577783117932181</v>
+        <v>0.04150613619731196</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_57.xlsx
+++ b/output/fit_clients/fit_round_57.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2182001762.528118</v>
+        <v>1935546057.972357</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1011404338526515</v>
+        <v>0.09005029610690259</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03581600750159198</v>
+        <v>0.02871358128151471</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2454341223.237795</v>
+        <v>2193934303.948194</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1582180762439631</v>
+        <v>0.1840350269875907</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04381888450573234</v>
+        <v>0.03971883243861125</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4423909065.210774</v>
+        <v>5133109386.77069</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1031323732827902</v>
+        <v>0.1446255587183634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02654383248722868</v>
+        <v>0.03297568982490524</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57</v>
+      </c>
+      <c r="K4" t="n">
+        <v>200.013143241174</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4002763913.175911</v>
+        <v>3334388489.948607</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07271317570647898</v>
+        <v>0.06763887918879473</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0391218037596135</v>
+        <v>0.03754500024885553</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>55</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2313713454.854131</v>
+        <v>1826607508.033074</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1017100160304167</v>
+        <v>0.1356629284743582</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04487788403814712</v>
+        <v>0.05565523064797986</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2625711865.052272</v>
+        <v>1954519568.809373</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07736449460472275</v>
+        <v>0.09245695394453522</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04328312299408239</v>
+        <v>0.04408034590144051</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2672482179.815394</v>
+        <v>3475551886.511093</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1899698888726319</v>
+        <v>0.1959173598776209</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02883864178565008</v>
+        <v>0.02152806220692133</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>57</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2076722054.722253</v>
+        <v>1870694636.427781</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1461348291621167</v>
+        <v>0.133576865089089</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02463715309628416</v>
+        <v>0.03196125528381218</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5306426910.128337</v>
+        <v>4502009465.510044</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2088823614219009</v>
+        <v>0.1324129532793587</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03732371093584891</v>
+        <v>0.05258973642370873</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>53</v>
+      </c>
+      <c r="J10" t="n">
+        <v>57</v>
+      </c>
+      <c r="K10" t="n">
+        <v>221.7952022734374</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3683875386.559805</v>
+        <v>3457614126.630051</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1299723455451598</v>
+        <v>0.1403848414916017</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03632794991781817</v>
+        <v>0.04794620841945037</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>53</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2368380911.522786</v>
+        <v>2993290577.553049</v>
       </c>
       <c r="F12" t="n">
-        <v>0.196956672220974</v>
+        <v>0.1420908394666528</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03569635078215729</v>
+        <v>0.03461443348873953</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4473080199.316776</v>
+        <v>3871980918.465054</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09787826968672664</v>
+        <v>0.09322612070472751</v>
       </c>
       <c r="G13" t="n">
-        <v>0.028492490683199</v>
+        <v>0.03050631172831592</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>28</v>
+      </c>
+      <c r="J13" t="n">
+        <v>57</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +925,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3243521728.486979</v>
+        <v>3618371551.499063</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1416523180747259</v>
+        <v>0.1587330429295106</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02779151754388783</v>
+        <v>0.03129707701092392</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="n">
+        <v>142.660791168521</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1397588850.955237</v>
+        <v>1718710594.732729</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08145656564672524</v>
+        <v>0.06727663730375621</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04207507037985496</v>
+        <v>0.04144009972874181</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2322219716.335117</v>
+        <v>2605960961.130572</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08121839051167949</v>
+        <v>0.08683017605446522</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0359408646816573</v>
+        <v>0.05095605350615072</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3833233779.10377</v>
+        <v>4374832405.949517</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1238286404082991</v>
+        <v>0.1107551339165221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04238081226542399</v>
+        <v>0.04844467133778226</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>27</v>
+      </c>
+      <c r="J17" t="n">
+        <v>57</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2843582215.955775</v>
+        <v>3262472567.864062</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1804547106075617</v>
+        <v>0.1222357575824286</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03189393576615281</v>
+        <v>0.02366319785464823</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>53</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1115353408.795522</v>
+        <v>1328664758.26509</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1760268352837347</v>
+        <v>0.1622993483393251</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01932619678851453</v>
+        <v>0.02618944034051333</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1695378003.196702</v>
+        <v>2762122961.447219</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09785990241117573</v>
+        <v>0.1316616206412426</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02559274586876012</v>
+        <v>0.02841086556874045</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2346902361.644784</v>
+        <v>2314269508.352782</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08402853804978364</v>
+        <v>0.07662336358118084</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04440123945215541</v>
+        <v>0.04036050621776585</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3540556286.699081</v>
+        <v>3660734545.511889</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09778643463510074</v>
+        <v>0.1074725863801621</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05382711174033813</v>
+        <v>0.04310950239929206</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>57</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1057224938.841692</v>
+        <v>1497298715.622469</v>
       </c>
       <c r="F23" t="n">
-        <v>0.167417178831271</v>
+        <v>0.1178849387198941</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03380986286033461</v>
+        <v>0.04974712639342101</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3550147327.930941</v>
+        <v>3561025818.749171</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1321103200793596</v>
+        <v>0.1314520332357554</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02330016559353747</v>
+        <v>0.0368617672045052</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>57</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1062479534.594503</v>
+        <v>1439493932.846119</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09400467102076751</v>
+        <v>0.09708335712013698</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01871249630679838</v>
+        <v>0.02140601011794934</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>878126403.2333187</v>
+        <v>958260548.3245368</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08359305105201562</v>
+        <v>0.1095894290026919</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0238968439954816</v>
+        <v>0.03007885348346941</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4201050208.101102</v>
+        <v>4204043179.274725</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1437694931278369</v>
+        <v>0.1028140914385729</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02066833876744432</v>
+        <v>0.02556028934696304</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>56</v>
+      </c>
+      <c r="K27" t="n">
+        <v>159.4908876950556</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3600146422.666265</v>
+        <v>2915778814.712539</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1517942586292432</v>
+        <v>0.1088978280362943</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0317697366957958</v>
+        <v>0.0426369050786974</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>51</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4682647638.244581</v>
+        <v>4796909751.959867</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1384240196754701</v>
+        <v>0.1317003701617978</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04042205840500469</v>
+        <v>0.03651219192304751</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>52</v>
+      </c>
+      <c r="J29" t="n">
+        <v>57</v>
+      </c>
+      <c r="K29" t="n">
+        <v>230.3322345280012</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1487622307.046765</v>
+        <v>1503375109.311393</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08518925545875924</v>
+        <v>0.09694065187504822</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03613800696360588</v>
+        <v>0.03336276538302609</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1210362295.367615</v>
+        <v>991078140.4526961</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07013282697926147</v>
+        <v>0.08148251038353328</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04756453841540839</v>
+        <v>0.03278642144989727</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1332444931.098774</v>
+        <v>1694602126.173805</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08458955577415551</v>
+        <v>0.1056415720009917</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03023540891808001</v>
+        <v>0.02566990129087725</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1905464588.113375</v>
+        <v>3015219413.934922</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1750194537709616</v>
+        <v>0.1819207638441823</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05332736737651984</v>
+        <v>0.04496743499533779</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1210160105.776897</v>
+        <v>1409298681.619055</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1167032733636044</v>
+        <v>0.1064592154058804</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02383475544002672</v>
+        <v>0.02382623837226669</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1124344070.274179</v>
+        <v>1304621018.914946</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1014701495730432</v>
+        <v>0.111217477680148</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03044595704147296</v>
+        <v>0.0348363487922631</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3146725359.185316</v>
+        <v>2536346119.972928</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1802496819333463</v>
+        <v>0.1277758314717434</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02450921661713614</v>
+        <v>0.02463977838076189</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2241472489.861857</v>
+        <v>2530113796.594743</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1117110023081526</v>
+        <v>0.1057757301779061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03930005965593724</v>
+        <v>0.03200319770083274</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1369854190.031808</v>
+        <v>2085619598.798042</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08924281639209024</v>
+        <v>0.1154028305159143</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03328218693839418</v>
+        <v>0.02500687019594311</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1997829155.029166</v>
+        <v>1676912216.427775</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1273560650076845</v>
+        <v>0.1501746793453353</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02934744150422192</v>
+        <v>0.02501211751082173</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1654041999.442847</v>
+        <v>1408407283.492175</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1424641175196605</v>
+        <v>0.1493033607334623</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04076656868201124</v>
+        <v>0.04094352583834639</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2194978425.590943</v>
+        <v>2466803527.695857</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1297482337722363</v>
+        <v>0.1072310372329339</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03629198207222602</v>
+        <v>0.0287020556976485</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2631092390.507406</v>
+        <v>3424027266.128784</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08326598823201667</v>
+        <v>0.1194806497480601</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03986072391387788</v>
+        <v>0.02950806742662368</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>21</v>
+      </c>
+      <c r="J42" t="n">
+        <v>56</v>
+      </c>
+      <c r="K42" t="n">
+        <v>126.6225933705812</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2279683662.81082</v>
+        <v>2284245630.311327</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1716288921288838</v>
+        <v>0.1734089515296792</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01974308648078605</v>
+        <v>0.01680559843703246</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2017732266.717891</v>
+        <v>2006133950.779485</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06440953391941825</v>
+        <v>0.1020476633369094</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0249450095243274</v>
+        <v>0.03123212432539891</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2148870646.718798</v>
+        <v>2388387073.372878</v>
       </c>
       <c r="F45" t="n">
-        <v>0.158928867922338</v>
+        <v>0.1285080174949022</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0469039068167781</v>
+        <v>0.04821010354535025</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5141341740.284295</v>
+        <v>5217687176.03166</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1770107623854807</v>
+        <v>0.1737725042609906</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0531695474734202</v>
+        <v>0.0592487568797679</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>34</v>
+      </c>
+      <c r="J46" t="n">
+        <v>56</v>
+      </c>
+      <c r="K46" t="n">
+        <v>196.9083450378368</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3716635520.043979</v>
+        <v>3815080326.148394</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1350313033248564</v>
+        <v>0.1279610211719559</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0454904090550015</v>
+        <v>0.03818565154154172</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>57</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3311582700.923604</v>
+        <v>3924399366.731474</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09367498319402727</v>
+        <v>0.08134870996547908</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0301776572072038</v>
+        <v>0.02979017369613631</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>19</v>
+      </c>
+      <c r="J48" t="n">
+        <v>57</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1989053826.801529</v>
+        <v>1810802199.977839</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1189796478761685</v>
+        <v>0.1205578635481436</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04128422191843891</v>
+        <v>0.03066571073575732</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2793597889.518702</v>
+        <v>3607701255.957994</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1096222666972708</v>
+        <v>0.1313412473653201</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04464436596420137</v>
+        <v>0.0401974250217634</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>19</v>
+      </c>
+      <c r="J50" t="n">
+        <v>57</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1088553722.516136</v>
+        <v>976896198.389215</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1289421244944373</v>
+        <v>0.1195938272037218</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04638322221034658</v>
+        <v>0.04088320565730039</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5202332414.610085</v>
+        <v>5153828581.39615</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1360375676121511</v>
+        <v>0.09891213666746317</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03816134304819611</v>
+        <v>0.0439944432889794</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>45</v>
+      </c>
+      <c r="J52" t="n">
+        <v>57</v>
+      </c>
+      <c r="K52" t="n">
+        <v>210.5571238588304</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2554638718.978167</v>
+        <v>3049453993.449401</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1697298568003823</v>
+        <v>0.1931854241039123</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03273034050155842</v>
+        <v>0.03290788745054928</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>55</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4822628754.704139</v>
+        <v>4052098381.363378</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1663679069439451</v>
+        <v>0.162024285240338</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04815869713322956</v>
+        <v>0.04330985005948465</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>56</v>
+      </c>
+      <c r="K54" t="n">
+        <v>177.7700415833783</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4833663495.475737</v>
+        <v>4720986016.289156</v>
       </c>
       <c r="F55" t="n">
-        <v>0.170941319658746</v>
+        <v>0.2225221182400801</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0228010808230962</v>
+        <v>0.02028393794117297</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>26</v>
+      </c>
+      <c r="J55" t="n">
+        <v>56</v>
+      </c>
+      <c r="K55" t="n">
+        <v>174.4624381694037</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1818700001.502468</v>
+        <v>1140893897.603971</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1131762368151897</v>
+        <v>0.1093003804382425</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05400451529825335</v>
+        <v>0.03908781980393376</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4162066916.939439</v>
+        <v>2943984142.680075</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1622210414752374</v>
+        <v>0.1780908246172795</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01973138692848253</v>
+        <v>0.02529836930570461</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>21</v>
+      </c>
+      <c r="J57" t="n">
+        <v>56</v>
+      </c>
+      <c r="K57" t="n">
+        <v>89.60821203690742</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1491285190.258291</v>
+        <v>1178665193.33566</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1280417680582438</v>
+        <v>0.1822191569209715</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02459901365546787</v>
+        <v>0.02709396776895114</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5125849176.512417</v>
+        <v>3663670711.298689</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0885350653106228</v>
+        <v>0.1280128812663393</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04088391123453972</v>
+        <v>0.04175412248570641</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27</v>
+      </c>
+      <c r="J59" t="n">
+        <v>57</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2590087740.842715</v>
+        <v>3116809284.608268</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1329054984662291</v>
+        <v>0.1851306565452318</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02147348424977358</v>
+        <v>0.0309715720152297</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2814910510.628839</v>
+        <v>3153244048.816313</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1409284373915554</v>
+        <v>0.1511179419648151</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02040663454579327</v>
+        <v>0.0263117196890117</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1909090292.179173</v>
+        <v>1757438910.845824</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1221398800292174</v>
+        <v>0.1355288245897354</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0313087251323272</v>
+        <v>0.0302793206753732</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4942985959.220911</v>
+        <v>5531352134.30661</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09105333578607661</v>
+        <v>0.07698418053375182</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03450623446518809</v>
+        <v>0.04341580373593706</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>28</v>
+      </c>
+      <c r="J63" t="n">
+        <v>56</v>
+      </c>
+      <c r="K63" t="n">
+        <v>182.4796411177037</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4685442398.231279</v>
+        <v>4756925463.99034</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1821481428388556</v>
+        <v>0.1202528783223583</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03136632049736714</v>
+        <v>0.02307788981346318</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28</v>
+      </c>
+      <c r="J64" t="n">
+        <v>56</v>
+      </c>
+      <c r="K64" t="n">
+        <v>187.8301381317683</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3697647411.781266</v>
+        <v>4724262851.194814</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1589115554454378</v>
+        <v>0.1091014751755366</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02709713130517532</v>
+        <v>0.02320057350457602</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>45</v>
+      </c>
+      <c r="J65" t="n">
+        <v>57</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3960649178.716428</v>
+        <v>4252428730.896308</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1125479204196791</v>
+        <v>0.1515309267964652</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03803964600423709</v>
+        <v>0.04942510631206066</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>28</v>
+      </c>
+      <c r="J66" t="n">
+        <v>56</v>
+      </c>
+      <c r="K66" t="n">
+        <v>184.3698271324004</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2857095856.632272</v>
+        <v>2425351412.170035</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1017425955651025</v>
+        <v>0.08970459366397195</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04113632595253936</v>
+        <v>0.03400842888029557</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4710119959.884608</v>
+        <v>6087080462.140793</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09765521789900196</v>
+        <v>0.1310057422113233</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04718641193496265</v>
+        <v>0.04686441687251417</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>28</v>
+      </c>
+      <c r="J68" t="n">
+        <v>57</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2005244005.518453</v>
+        <v>1591700741.055903</v>
       </c>
       <c r="F69" t="n">
-        <v>0.115866772255608</v>
+        <v>0.1806008609668819</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0517051987218092</v>
+        <v>0.0484353604151245</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2686319867.474189</v>
+        <v>3118941836.56657</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1015095415901283</v>
+        <v>0.06217956282171324</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04638042351399155</v>
+        <v>0.04921582339003851</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>54</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4123563740.199316</v>
+        <v>4335012533.29736</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1660666046565905</v>
+        <v>0.1484088189999571</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02240231201310483</v>
+        <v>0.03089672657915814</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>46</v>
+      </c>
+      <c r="J71" t="n">
+        <v>57</v>
+      </c>
+      <c r="K71" t="n">
+        <v>201.9059766581391</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1998160902.846705</v>
+        <v>2054902522.256418</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08540670271677313</v>
+        <v>0.1075899514180593</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04536768847843219</v>
+        <v>0.04456573970346113</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2169866914.349262</v>
+        <v>2861011534.347491</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09824059268873159</v>
+        <v>0.0900745350878748</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0416603432200883</v>
+        <v>0.04197517933407612</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3926883189.834635</v>
+        <v>2643339892.3094</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1186664378733066</v>
+        <v>0.1254159942959452</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02410102060462331</v>
+        <v>0.0266195583582953</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>54</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2343643354.957782</v>
+        <v>1849607808.057611</v>
       </c>
       <c r="F75" t="n">
-        <v>0.104301627832705</v>
+        <v>0.1441414332540202</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02410269282650333</v>
+        <v>0.02633536258850578</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4274769501.345123</v>
+        <v>4612389757.410611</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1007951429570367</v>
+        <v>0.1185544865310518</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0319299158474415</v>
+        <v>0.0276249071681377</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>26</v>
+      </c>
+      <c r="J76" t="n">
+        <v>57</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2127934842.271532</v>
+        <v>1999007454.024439</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1543179598974744</v>
+        <v>0.1338443192531897</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01975921985161368</v>
+        <v>0.02690351280724782</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4607560009.038228</v>
+        <v>4252016976.52336</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1102035458440011</v>
+        <v>0.09258868120733511</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0410711992100803</v>
+        <v>0.04792859964904893</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+      <c r="J78" t="n">
+        <v>56</v>
+      </c>
+      <c r="K78" t="n">
+        <v>198.8567070108237</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1377124779.479158</v>
+        <v>1511167726.261467</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1320994972198357</v>
+        <v>0.1716214071786385</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0387611921297556</v>
+        <v>0.03133408388895623</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4383177206.774964</v>
+        <v>4188989297.675525</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09985334796824086</v>
+        <v>0.08914490383976788</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0384848857950283</v>
+        <v>0.03205125693954086</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>27</v>
+      </c>
+      <c r="J80" t="n">
+        <v>57</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3692352336.718643</v>
+        <v>4447624643.189076</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09801085629731682</v>
+        <v>0.125270074921835</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03288829082697028</v>
+        <v>0.02188090444816144</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+      <c r="J81" t="n">
+        <v>57</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4877737118.393625</v>
+        <v>3712241303.903612</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2016817732361498</v>
+        <v>0.2158259147541734</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01786702042209198</v>
+        <v>0.01933066529955803</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>33</v>
+      </c>
+      <c r="J82" t="n">
+        <v>56</v>
+      </c>
+      <c r="K82" t="n">
+        <v>156.3540392615229</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1576071483.683102</v>
+        <v>1982989154.103799</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1370662439321694</v>
+        <v>0.1077908452399663</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0346573167589929</v>
+        <v>0.02917590746799479</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2103766702.421241</v>
+        <v>2483276633.585596</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09981854886153653</v>
+        <v>0.09361841918487022</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04741671175767913</v>
+        <v>0.04521715455081679</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2919428085.695524</v>
+        <v>2888678754.256527</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1551130398457779</v>
+        <v>0.1432933132551783</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03618686223643478</v>
+        <v>0.0466871070474438</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>52</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2295840550.774094</v>
+        <v>1897706075.140144</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1163017314267655</v>
+        <v>0.1179640344321642</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01742786921229543</v>
+        <v>0.02114427516321988</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1109125252.290118</v>
+        <v>1440462306.347112</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1613283374813632</v>
+        <v>0.172603100974116</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02733348570593589</v>
+        <v>0.04393627628236402</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2948250806.290368</v>
+        <v>2500149288.824162</v>
       </c>
       <c r="F88" t="n">
-        <v>0.159194306172515</v>
+        <v>0.1705224669301133</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02553515891011904</v>
+        <v>0.03428240469689642</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2952844942.178225</v>
+        <v>2162027178.459804</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1264465204421917</v>
+        <v>0.1131369950713479</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03893236824382475</v>
+        <v>0.03933555906616243</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1989588001.096735</v>
+        <v>1539807619.918802</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1164821367043457</v>
+        <v>0.1073668763810386</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05616983453527702</v>
+        <v>0.03447936623072416</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1713201908.17004</v>
+        <v>1830179231.234914</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1611862813772262</v>
+        <v>0.1820433076451183</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06066506190017741</v>
+        <v>0.06178636493458525</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2411983003.391674</v>
+        <v>2294121494.823528</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1051059768519773</v>
+        <v>0.07795837091701005</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04246193524955672</v>
+        <v>0.04236152737078554</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4107609139.415229</v>
+        <v>4205917151.801023</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1072532380066599</v>
+        <v>0.1306342562030429</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03891854733501784</v>
+        <v>0.04182060091958848</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+      <c r="J93" t="n">
+        <v>56</v>
+      </c>
+      <c r="K93" t="n">
+        <v>179.48019879368</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1659594826.282078</v>
+        <v>2295539701.102571</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1529967071964722</v>
+        <v>0.108861771568726</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02934377550786706</v>
+        <v>0.03886549294931797</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2393496768.2319</v>
+        <v>2675947482.270599</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09276476877286451</v>
+        <v>0.1258479506398209</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03930106913013125</v>
+        <v>0.04713538978506038</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2020224159.021745</v>
+        <v>1796466105.389336</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09140572285918205</v>
+        <v>0.1368874058292533</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03567830777696829</v>
+        <v>0.04594953747541946</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4654741223.595241</v>
+        <v>4895451612.16822</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1562190100632302</v>
+        <v>0.131997065970694</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01901447223564594</v>
+        <v>0.02163160369820511</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>28</v>
+      </c>
+      <c r="J97" t="n">
+        <v>56</v>
+      </c>
+      <c r="K97" t="n">
+        <v>197.6408761667563</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2747286440.047183</v>
+        <v>3929979066.12561</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09711972855804628</v>
+        <v>0.1238880508983538</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02415176500471878</v>
+        <v>0.0269279112255321</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>57</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3049427954.154763</v>
+        <v>2143770175.244954</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1473931845900646</v>
+        <v>0.1252205658712075</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02172901881551012</v>
+        <v>0.02913545976034747</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3354133890.663939</v>
+        <v>3349187033.728143</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1212663373817366</v>
+        <v>0.1422037304217143</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0205944769608918</v>
+        <v>0.02549649577570074</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>25</v>
+      </c>
+      <c r="J100" t="n">
+        <v>56</v>
+      </c>
+      <c r="K100" t="n">
+        <v>113.2203852929375</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3099398682.136658</v>
+        <v>2209225462.396067</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1761219824878949</v>
+        <v>0.1762889268914467</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04150613619731196</v>
+        <v>0.04162367348624392</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
